--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -497,7 +497,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-02:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-02:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
   </si>
   <si>
     <t>informationRecipient</t>
@@ -514,7 +514,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-06:A practitioner shall conform to Base Practitioner {extension('http://hl7.org.au/fhir/StructureDefinition/information-recipient').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')}inv-dh-cmp-07:A patient shall conform to Base Patient {extension('http://hl7.org.au/fhir/StructureDefinition/information-recipient').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')}inv-dh-cmp-08:A related person shall conform to Base RelatedPerson {extension('http://hl7.org.au/fhir/StructureDefinition/information-recipient').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}inv-dh-cmp-09:A practitioner role shall conform to Base PractitionerRole {extension('http://hl7.org.au/fhir/StructureDefinition/information-recipient').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-dh-base-1')}inv-dh-cmp-10:An organisation shall conform to Base Organization {extension('http://hl7.org.au/fhir/StructureDefinition/information-recipient').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1')}inv-dh-cmp-11:Information recipient shall not be a device {extension('http://hl7.org.au/fhir/StructureDefinition/information-recipient').resolve().where($this is Device).exists().not()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-06:A practitioner shall conform to Base Practitioner {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')}inv-dh-cmp-07:A patient shall conform to Base Patient {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')}inv-dh-cmp-08:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}inv-dh-cmp-09:A practitioner role shall conform to Base PractitionerRole {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-dh-base-1')}inv-dh-cmp-10:An organisation shall conform to Base Organization {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1')}inv-dh-cmp-11:Information recipient shall not be a device {resolve().where($this is Device).exists().not()}</t>
   </si>
   <si>
     <t>Composition.modifierExtension</t>
@@ -1347,7 +1347,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:The section shall at least have one entry or an empty reason, but not both {section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '48765-2').entry.exists() xor section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '48765-2').emptyReason.exists()}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1381,7 +1381,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-04:If present, the assertion of no relevant finding entry shall assert no known current medications {section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').exists() implies (section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is List).exists() xor section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-05:The section shall at least have one entry or an empty reason, but not both {section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.exists() xor section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').emptyReason.exists()}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-04:If present, the assertion of no relevant finding entry shall assert no known current medications {entry.resolve().where($this is Observation ).exists() implies entry.resolve().where($this is value and value.coding.code = '1234391000168107').exists()}inv-dh-cmp-05:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -742,7 +742,7 @@
 </t>
   </si>
   <si>
-    <t>Practitioner referenced by composition-author-role</t>
+    <t>Practitioner referenced by composition author role</t>
   </si>
   <si>
     <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
@@ -1343,7 +1343,7 @@
     <t>Allergies</t>
   </si>
   <si>
-    <t>Information about allergies or intolerances identified or reported during this encounter. This may include statements that a patient does not have an allergy or category of allergies.</t>
+    <t>Information about allergies or intolerances. Information may include allergies or intolerances that have been identified or reported, or may include statements that a patient is not known to have an allergy or category of allergies.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
@@ -1374,10 +1374,10 @@
     <t>medications</t>
   </si>
   <si>
-    <t>Medications</t>
-  </si>
-  <si>
-    <t>Medicines the patient is currently taking including self-prescribed, clinician prescribed and nonprescription medicines, as well as all regular, intermittent and as required medicines. This also includes changes to the therapy, including dose changes, new medicines and ceased medicines.</t>
+    <t>Medicines list</t>
+  </si>
+  <si>
+    <t>Information about medicines. This may include self-prescribed, clinician prescribed and nonprescription medicines, as well as all regular, intermittent and as required medicines pertinent to a patient. Information may also include changes to the therapy, including dose changes, new medicines and ceased medicines.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
@@ -1396,7 +1396,7 @@
 </t>
   </si>
   <si>
-    <t>Medicines list</t>
+    <t>Medicines list with change information</t>
   </si>
 </sst>
 </file>

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3333" uniqueCount="439">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-cmp-12:The subject reference shall at least have a reference or an identifier {subject.reference.exists()}inv-dh-cmp-13:The author reference shall at least have a reference or an identifier {author.reference.exists()}inv-dh-cmp-15:The custodian reference shall at least have a reference or an identifier {custodian .reference.exists()}inv-dh-cmp-16:The encounter reference shall at least have a reference {encounter.exists() implies encounter .reference.exists()}inv-dh-cmp-19:The author role reference shall at least have a reference or an identifier {extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.reference.exists()}</t>
   </si>
   <si>
     <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
@@ -486,7 +486,7 @@
 </t>
   </si>
   <si>
-    <t>Practitioner role that authored the composition</t>
+    <t>Authoring practitioner role</t>
   </si>
   <si>
     <t>A practitioner role that authored this composition. This is not to be confused with who typed in the information.</t>
@@ -824,7 +824,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-com-0:Related party and party shall not coexist {(attester.extension('http://hl7.org.au/fhir/StructureDefinition/attester-related-party').exists() and attester.party.exists()).not()}</t>
+inv-com-0:Related party and party shall not coexist {(attester.extension('http://hl7.org.au/fhir/StructureDefinition/attester-related-party').exists() and attester.party.exists()).not()}inv-dh-cmp-14:The party reference shall at least have a reference or an identifier {party.reference.exists()}</t>
   </si>
   <si>
     <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
@@ -945,6 +945,10 @@
     <t>Legal attester</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-com-0:Related party and party shall not coexist {(attester.extension('http://hl7.org.au/fhir/StructureDefinition/attester-related-party').exists() and attester.party.exists()).not()}</t>
+  </si>
+  <si>
     <t>legal</t>
   </si>
   <si>
@@ -1347,7 +1351,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}inv-dh-cmp-17:The entry reference shall at least have a reference {entry.exists() implies entry.reference.exists()}</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1381,15 +1385,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-04:If present, the assertion of no relevant finding entry shall assert no known current medications {entry.resolve().where($this is Observation ).exists() implies entry.resolve().where($this is value and value.coding.code = '1234391000168107').exists()}inv-dh-cmp-05:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="10160-0"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-20:If a list entry is referenced its code shall be the same as the section code {TBD}inv-dh-cmp-04:If present, the assertion of no relevant finding entry shall assert no known current medications {entry.resolve().where($this is Observation ).exists() implies entry.resolve().where($this is value and value.coding.code = '1234391000168107').exists()}inv-dh-cmp-05:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}inv-dh-cmp-18:The entry reference shall at least have a reference {entry.exists() implies entry.reference.exists()}</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/medicines-list-type-1</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-sml-pracchanges-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
@@ -5696,7 +5695,7 @@
         <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>257</v>
@@ -6178,7 +6177,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6462,7 +6461,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6485,19 +6484,19 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6546,7 +6545,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6561,10 +6560,10 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6572,7 +6571,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6598,13 +6597,13 @@
         <v>250</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6654,7 +6653,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6666,13 +6665,13 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6680,7 +6679,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6786,7 +6785,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6894,7 +6893,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7002,7 +7001,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7028,13 +7027,13 @@
         <v>119</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7063,10 +7062,10 @@
         <v>176</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
@@ -7084,7 +7083,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>50</v>
@@ -7099,10 +7098,10 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -7110,7 +7109,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7133,13 +7132,13 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7190,7 +7189,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>50</v>
@@ -7205,10 +7204,10 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7216,7 +7215,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7242,16 +7241,16 @@
         <v>250</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -7300,7 +7299,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7312,13 +7311,13 @@
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7326,7 +7325,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7432,7 +7431,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7540,7 +7539,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7648,7 +7647,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7674,13 +7673,13 @@
         <v>182</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7709,10 +7708,10 @@
         <v>109</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7730,7 +7729,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7756,7 +7755,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7779,13 +7778,13 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7836,7 +7835,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7862,7 +7861,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7885,13 +7884,13 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7942,7 +7941,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7957,7 +7956,7 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>68</v>
@@ -7968,7 +7967,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7994,10 +7993,10 @@
         <v>250</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8036,7 +8035,7 @@
         <v>39</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
@@ -8046,7 +8045,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8058,13 +8057,13 @@
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -8072,7 +8071,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8178,7 +8177,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8282,10 +8281,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>39</v>
@@ -8307,13 +8306,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8390,7 +8389,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8498,11 +8497,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8524,16 +8523,16 @@
         <v>64</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8582,7 +8581,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8608,7 +8607,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8634,16 +8633,16 @@
         <v>182</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8671,10 +8670,10 @@
         <v>109</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>39</v>
@@ -8692,7 +8691,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8718,7 +8717,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8744,13 +8743,13 @@
         <v>129</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8800,7 +8799,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8809,16 +8808,16 @@
         <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8826,7 +8825,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8852,16 +8851,16 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8889,10 +8888,10 @@
         <v>176</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>39</v>
@@ -8910,7 +8909,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8925,7 +8924,7 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>68</v>
@@ -8936,7 +8935,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8962,16 +8961,16 @@
         <v>182</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>39</v>
@@ -8999,10 +8998,10 @@
         <v>188</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -9020,7 +9019,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9035,7 +9034,7 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>68</v>
@@ -9046,7 +9045,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9069,16 +9068,16 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9128,7 +9127,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9137,16 +9136,16 @@
         <v>41</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9154,7 +9153,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9180,16 +9179,16 @@
         <v>182</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9217,10 +9216,10 @@
         <v>188</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
@@ -9238,7 +9237,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9247,13 +9246,13 @@
         <v>50</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>68</v>
@@ -9264,7 +9263,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9290,13 +9289,13 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9346,7 +9345,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9355,16 +9354,16 @@
         <v>41</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9372,10 +9371,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>39</v>
@@ -9400,10 +9399,10 @@
         <v>250</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9454,7 +9453,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9466,13 +9465,13 @@
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>
@@ -9480,7 +9479,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9586,7 +9585,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9690,10 +9689,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>39</v>
@@ -9715,13 +9714,13 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9798,7 +9797,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9906,11 +9905,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9932,16 +9931,16 @@
         <v>64</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>39</v>
@@ -9990,7 +9989,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10016,7 +10015,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10042,23 +10041,23 @@
         <v>182</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>39</v>
@@ -10079,10 +10078,10 @@
         <v>109</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>39</v>
@@ -10100,7 +10099,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10126,7 +10125,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10152,13 +10151,13 @@
         <v>129</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10208,7 +10207,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10217,16 +10216,16 @@
         <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -10234,7 +10233,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10260,23 +10259,23 @@
         <v>119</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>39</v>
@@ -10297,10 +10296,10 @@
         <v>176</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>39</v>
@@ -10318,7 +10317,7 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -10333,7 +10332,7 @@
         <v>39</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>68</v>
@@ -10344,7 +10343,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10370,16 +10369,16 @@
         <v>182</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
@@ -10407,10 +10406,10 @@
         <v>188</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>39</v>
@@ -10428,7 +10427,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10443,7 +10442,7 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>68</v>
@@ -10454,7 +10453,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10477,16 +10476,16 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10536,7 +10535,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10545,16 +10544,16 @@
         <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10562,7 +10561,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10588,16 +10587,16 @@
         <v>182</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
@@ -10626,7 +10625,7 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
@@ -10644,7 +10643,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10653,13 +10652,13 @@
         <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>68</v>
@@ -10670,7 +10669,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10696,13 +10695,13 @@
         <v>39</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10752,7 +10751,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10761,16 +10760,16 @@
         <v>41</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10778,10 +10777,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>39</v>
@@ -10791,7 +10790,7 @@
         <v>50</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>51</v>
@@ -10806,10 +10805,10 @@
         <v>250</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10860,7 +10859,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10872,13 +10871,13 @@
         <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -10886,7 +10885,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10992,7 +10991,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11096,10 +11095,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>39</v>
@@ -11121,13 +11120,13 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11204,7 +11203,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11312,11 +11311,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11338,16 +11337,16 @@
         <v>64</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>39</v>
@@ -11396,7 +11395,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11422,7 +11421,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11448,23 +11447,23 @@
         <v>182</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>435</v>
+        <v>39</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>39</v>
@@ -11482,13 +11481,11 @@
         <v>39</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="X92" s="2"/>
       <c r="Y92" t="s" s="2">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
@@ -11506,7 +11503,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11532,7 +11529,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11558,13 +11555,13 @@
         <v>129</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11614,7 +11611,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11623,16 +11620,16 @@
         <v>50</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>39</v>
@@ -11640,7 +11637,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11666,23 +11663,23 @@
         <v>119</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>39</v>
@@ -11703,10 +11700,10 @@
         <v>176</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>39</v>
@@ -11724,7 +11721,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -11739,7 +11736,7 @@
         <v>39</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>68</v>
@@ -11750,7 +11747,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11776,16 +11773,16 @@
         <v>182</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>39</v>
@@ -11813,10 +11810,10 @@
         <v>188</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>39</v>
@@ -11834,7 +11831,7 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -11849,7 +11846,7 @@
         <v>39</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>68</v>
@@ -11860,7 +11857,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11883,16 +11880,16 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11942,7 +11939,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -11951,16 +11948,16 @@
         <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
@@ -11968,7 +11965,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11994,16 +11991,16 @@
         <v>182</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>39</v>
@@ -12032,7 +12029,7 @@
       </c>
       <c r="X97" s="2"/>
       <c r="Y97" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -12050,7 +12047,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12059,13 +12056,13 @@
         <v>50</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>68</v>
@@ -12076,7 +12073,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12102,13 +12099,13 @@
         <v>39</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12158,7 +12155,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
@@ -12167,16 +12164,16 @@
         <v>41</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>39</v>

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3333" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="463">
   <si>
     <t>Path</t>
   </si>
@@ -146,14 +146,14 @@
     <t>Shared Medicines List</t>
   </si>
   <si>
-    <t>A list of medicines authored by a provider at a point in time that describes the medicines an individual is taking.</t>
+    <t>A list of medicines authored by a practitioner at a point in time that describes the medicines an individual is taking.</t>
   </si>
   <si>
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-cmp-12:The subject reference shall at least have a reference or an identifier {subject.reference.exists()}inv-dh-cmp-13:The author reference shall at least have a reference or an identifier {author.reference.exists()}inv-dh-cmp-15:The custodian reference shall at least have a reference or an identifier {custodian .reference.exists()}inv-dh-cmp-16:The encounter reference shall at least have a reference {encounter.exists() implies encounter .reference.exists()}inv-dh-cmp-19:The author role reference shall at least have a reference or an identifier {extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.reference.exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-cmp-01:The author role shall at least have a reference or an identifier with at least a system and a value {extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.reference.exists() or extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-18:If present, an information recipient shall at least have a reference, an identifier or a display {informationRecipient.exists() implies informationRecipient.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-cmp-02:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-03:The author shall at least have a reference or an identifier with at least a system and a value {author.reference.exists() or author.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-04:The custodian shall at least have a reference or an identifier with at least a system and a value {custodian.reference.exists() or custodian.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
@@ -206,7 +206,7 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-cmp-01:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-sml-prac-1' {profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-sml-prac-1').exists()}
+    <t xml:space="preserve">inv-dh-cmp-05:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-sml-prac-1' {profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-sml-prac-1').exists()}
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-02:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-06:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
   </si>
   <si>
     <t>informationRecipient</t>
@@ -514,7 +514,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-06:A practitioner shall conform to Base Practitioner {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')}inv-dh-cmp-07:A patient shall conform to Base Patient {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')}inv-dh-cmp-08:A related person shall conform to Base RelatedPerson {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1')}inv-dh-cmp-09:A practitioner role shall conform to Base PractitionerRole {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-dh-base-1')}inv-dh-cmp-10:An organisation shall conform to Base Organization {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1')}inv-dh-cmp-11:Information recipient shall not be a device {resolve().where($this is Device).exists().not()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-07:A practitioner shall conform to Base Practitioner {all($this.reference.exists() implies resolve().where($this is Practitioner).conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1'))}inv-dh-cmp-08:A patient shall conform to Base Patient {all($this.reference.exists() implies resolve().where($this is Patient).conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1'))}inv-dh-cmp-09:A related person shall conform to Base RelatedPerson {all($this.reference.exists() implies resolve().where($this is RelatedPerson).conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}inv-dh-cmp-10:A practitioner role shall conform to Base PractitionerRole {all($this.reference.exists() implies resolve().where($this is PractitionerRole).conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-dh-base-1'))}inv-dh-cmp-11:An organisation shall conform to Base Organization {all($this.reference.exists() implies resolve().where($this is Organization).conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1'))}inv-dh-cmp-12:An information recipient shall not be a device {resolve().where($this is Device).exists().not()}</t>
   </si>
   <si>
     <t>Composition.modifierExtension</t>
@@ -707,6 +707,66 @@
     <t>context</t>
   </si>
   <si>
+    <t>Composition.encounter.id</t>
+  </si>
+  <si>
+    <t>Composition.encounter.extension</t>
+  </si>
+  <si>
+    <t>Composition.encounter.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Composition.encounter.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the other resource. This is used when there is no way to reference the other resource directly, either because the entity is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Composition.encounter.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>Composition.date</t>
   </si>
   <si>
@@ -824,7 +884,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-com-0:Related party and party shall not coexist {(attester.extension('http://hl7.org.au/fhir/StructureDefinition/attester-related-party').exists() and attester.party.exists()).not()}inv-dh-cmp-14:The party reference shall at least have a reference or an identifier {party.reference.exists()}</t>
+inv-com-0:Related party and party shall not coexist {(attester.extension('http://hl7.org.au/fhir/StructureDefinition/attester-related-party').exists() and attester.party.exists()).not()}</t>
   </si>
   <si>
     <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
@@ -946,7 +1006,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-com-0:Related party and party shall not coexist {(attester.extension('http://hl7.org.au/fhir/StructureDefinition/attester-related-party').exists() and attester.party.exists()).not()}</t>
+inv-com-0:Related party and party shall not coexist {(attester.extension('http://hl7.org.au/fhir/StructureDefinition/attester-related-party').exists() and attester.party.exists()).not()}inv-dh-cmp-13:The party shall at least have a reference or an identifier with at least a system and a value {party.reference.exists() or party.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>legal</t>
@@ -1351,7 +1411,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}inv-dh-cmp-17:The entry reference shall at least have a reference {entry.exists() implies entry.reference.exists()}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-14:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1372,6 +1432,21 @@
     <t>Allergies and/or intolerances</t>
   </si>
   <si>
+    <t>Composition.section.entry.id</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.extension</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.reference</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.identifier</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.display</t>
+  </si>
+  <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/non-clinical-empty-reason-1</t>
   </si>
   <si>
@@ -1385,10 +1460,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-20:If a list entry is referenced its code shall be the same as the section code {TBD}inv-dh-cmp-04:If present, the assertion of no relevant finding entry shall assert no known current medications {entry.resolve().where($this is Observation ).exists() implies entry.resolve().where($this is value and value.coding.code = '1234391000168107').exists()}inv-dh-cmp-05:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}inv-dh-cmp-18:The entry reference shall at least have a reference {entry.exists() implies entry.reference.exists()}</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/medicines-list-type-1</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-15:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}inv-dh-cmp-16:If present, the assertion of no relevant finding entry shall assert no known current medications {entry.resolve().where($this is Observation ).exists() implies entry.resolve().where($this is value and value.coding.code = '1234391000168107').exists()}inv-dh-cmp-17:If present, a list shall have the same code as the section {entry.resolve().where($this is List).exists() implies ((entry.resolve().code.coding.code) = code.coding.code)}</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/history-of-medication-use-type-1</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-sml-pracchanges-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
@@ -1544,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL98"/>
+  <dimension ref="A1:AL113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1577,7 +1652,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.26953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.7109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -4301,7 +4376,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>219</v>
       </c>
@@ -4311,35 +4386,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>39</v>
       </c>
@@ -4387,10 +4458,10 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>50</v>
@@ -4402,52 +4473,52 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>225</v>
+        <v>68</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>39</v>
       </c>
@@ -4483,22 +4554,22 @@
         <v>39</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>41</v>
@@ -4510,18 +4581,18 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4535,7 +4606,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>39</v>
@@ -4547,13 +4618,13 @@
         <v>64</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4603,25 +4674,25 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4629,7 +4700,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4640,28 +4711,28 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4687,13 +4758,13 @@
         <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4711,7 +4782,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4726,10 +4797,10 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4737,7 +4808,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4748,7 +4819,7 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4760,20 +4831,18 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>39</v>
       </c>
@@ -4809,43 +4878,45 @@
         <v>39</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>257</v>
+        <v>143</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4853,31 +4924,35 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
       </c>
@@ -4925,10 +5000,10 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>50</v>
@@ -4940,18 +5015,18 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>39</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4959,31 +5034,33 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
       </c>
@@ -5019,20 +5096,22 @@
         <v>39</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>41</v>
@@ -5044,51 +5123,51 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>39</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
@@ -5137,25 +5216,25 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
@@ -5163,18 +5242,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -5186,16 +5265,16 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5221,13 +5300,13 @@
         <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -5245,13 +5324,13 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -5260,10 +5339,10 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>39</v>
@@ -5271,7 +5350,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5294,19 +5373,19 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5331,34 +5410,32 @@
         <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>41</v>
@@ -5367,13 +5444,13 @@
         <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5381,7 +5458,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5401,21 +5478,19 @@
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5463,7 +5538,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>67</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5478,10 +5553,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>283</v>
+        <v>68</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5489,7 +5564,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5500,7 +5575,7 @@
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>39</v>
@@ -5509,21 +5584,19 @@
         <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>145</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>146</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5559,25 +5632,23 @@
         <v>39</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
@@ -5586,56 +5657,52 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5683,7 +5750,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5692,16 +5759,16 @@
         <v>41</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5709,38 +5776,40 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5789,13 +5858,13 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>67</v>
+        <v>288</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
@@ -5804,7 +5873,7 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5815,7 +5884,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5823,7 +5892,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>41</v>
@@ -5835,19 +5904,23 @@
         <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5871,32 +5944,34 @@
         <v>39</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB40" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>41</v>
@@ -5908,10 +5983,10 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>39</v>
@@ -5919,11 +5994,9 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5941,19 +6014,21 @@
         <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
       </c>
@@ -6001,25 +6076,25 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
@@ -6027,41 +6102,41 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>71</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>160</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
@@ -6109,13 +6184,13 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
@@ -6124,20 +6199,22 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>39</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>39</v>
       </c>
@@ -6158,26 +6235,26 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6195,13 +6272,13 @@
         <v>39</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -6219,10 +6296,10 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>41</v>
@@ -6231,21 +6308,21 @@
         <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6253,33 +6330,31 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>39</v>
       </c>
@@ -6327,33 +6402,33 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6361,33 +6436,31 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>287</v>
+        <v>145</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>288</v>
+        <v>146</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6423,25 +6496,23 @@
         <v>39</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB45" s="2"/>
       <c r="AC45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -6450,54 +6521,52 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>292</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6545,25 +6614,25 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>304</v>
+        <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6571,11 +6640,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6588,22 +6657,22 @@
         <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
+        <v>74</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6653,7 +6722,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6665,21 +6734,21 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>310</v>
+        <v>143</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>311</v>
+        <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6687,37 +6756,41 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>39</v>
@@ -6735,13 +6808,13 @@
         <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
@@ -6759,13 +6832,13 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>67</v>
+        <v>289</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
@@ -6774,52 +6847,52 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6867,13 +6940,13 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -6882,52 +6955,52 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>68</v>
+        <v>302</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>160</v>
+        <v>306</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6975,13 +7048,13 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -6990,18 +7063,18 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>39</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7015,7 +7088,7 @@
         <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>39</v>
@@ -7024,18 +7097,20 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>119</v>
+        <v>317</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
       </c>
@@ -7059,13 +7134,13 @@
         <v>39</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>319</v>
+        <v>39</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>320</v>
+        <v>39</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
@@ -7083,10 +7158,10 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>50</v>
@@ -7098,10 +7173,10 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -7109,7 +7184,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7117,10 +7192,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
@@ -7132,7 +7207,7 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>325</v>
@@ -7140,7 +7215,9 @@
       <c r="L52" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M52" s="2"/>
+      <c r="M52" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -7189,25 +7266,25 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>39</v>
+        <v>328</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7215,7 +7292,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7226,7 +7303,7 @@
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
@@ -7235,23 +7312,19 @@
         <v>39</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
       </c>
@@ -7299,25 +7372,25 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>329</v>
+        <v>67</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>334</v>
+        <v>68</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7325,18 +7398,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
@@ -7348,15 +7421,17 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -7405,13 +7480,13 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -7431,11 +7506,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>70</v>
+        <v>286</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7448,19 +7523,19 @@
         <v>39</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>74</v>
@@ -7513,7 +7588,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7528,7 +7603,7 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
@@ -7539,39 +7614,39 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>160</v>
+        <v>335</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>74</v>
+        <v>337</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7597,13 +7672,13 @@
         <v>39</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>39</v>
+        <v>339</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>39</v>
@@ -7621,13 +7696,13 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
@@ -7636,10 +7711,10 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>143</v>
+        <v>340</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>39</v>
+        <v>341</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -7647,7 +7722,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7655,10 +7730,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>39</v>
@@ -7670,17 +7745,15 @@
         <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7705,13 +7778,13 @@
         <v>39</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>343</v>
+        <v>39</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>344</v>
+        <v>39</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7729,13 +7802,13 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -7744,10 +7817,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>192</v>
+        <v>346</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>192</v>
+        <v>347</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7755,7 +7828,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7766,7 +7839,7 @@
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>39</v>
@@ -7778,16 +7851,20 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
       </c>
@@ -7835,25 +7912,25 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>39</v>
+        <v>328</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>226</v>
+        <v>354</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7861,7 +7938,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7872,7 +7949,7 @@
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>39</v>
@@ -7881,16 +7958,16 @@
         <v>39</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>350</v>
+        <v>64</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>351</v>
+        <v>65</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>352</v>
+        <v>66</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7941,13 +8018,13 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -7956,10 +8033,10 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>353</v>
+        <v>68</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7967,15 +8044,15 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>41</v>
@@ -7990,15 +8067,17 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>39</v>
@@ -8035,17 +8114,19 @@
         <v>39</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8057,13 +8138,13 @@
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>358</v>
+        <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>359</v>
+        <v>68</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>360</v>
+        <v>39</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -8071,38 +8152,40 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -8151,13 +8234,13 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>67</v>
+        <v>288</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
@@ -8166,7 +8249,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -8177,7 +8260,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8197,18 +8280,20 @@
         <v>39</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>145</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>39</v>
@@ -8233,29 +8318,31 @@
         <v>39</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>39</v>
+        <v>362</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>39</v>
+        <v>363</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB62" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8270,10 +8357,10 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8281,11 +8368,9 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>39</v>
       </c>
@@ -8294,7 +8379,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>39</v>
@@ -8303,16 +8388,16 @@
         <v>39</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8363,25 +8448,25 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>39</v>
@@ -8389,11 +8474,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8406,23 +8491,21 @@
         <v>39</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>39</v>
@@ -8471,7 +8554,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8486,10 +8569,10 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>143</v>
+        <v>372</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -8497,18 +8580,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>369</v>
+        <v>39</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>39</v>
@@ -8520,20 +8603,16 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>39</v>
       </c>
@@ -8569,37 +8648,35 @@
         <v>39</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="AB65" s="2"/>
       <c r="AC65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>39</v>
+        <v>377</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>241</v>
+        <v>379</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>39</v>
@@ -8607,7 +8684,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8630,20 +8707,16 @@
         <v>39</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>375</v>
+        <v>65</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>39</v>
       </c>
@@ -8667,13 +8740,13 @@
         <v>39</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>379</v>
+        <v>39</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>39</v>
@@ -8691,7 +8764,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>374</v>
+        <v>67</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8706,10 +8779,10 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>39</v>
@@ -8728,7 +8801,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>39</v>
@@ -8740,17 +8813,15 @@
         <v>39</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>382</v>
+        <v>145</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>39</v>
@@ -8787,37 +8858,35 @@
         <v>39</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB67" s="2"/>
       <c r="AC67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>385</v>
+        <v>39</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>386</v>
+        <v>39</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>386</v>
+        <v>39</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8825,9 +8894,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>39</v>
       </c>
@@ -8836,32 +8907,28 @@
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>119</v>
+        <v>383</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>39</v>
       </c>
@@ -8885,13 +8952,13 @@
         <v>39</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>393</v>
+        <v>39</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>39</v>
@@ -8909,69 +8976,67 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>394</v>
+        <v>39</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>396</v>
+        <v>160</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>397</v>
+        <v>287</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>39</v>
       </c>
@@ -8995,13 +9060,13 @@
         <v>39</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>401</v>
+        <v>39</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -9019,13 +9084,13 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>395</v>
+        <v>288</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
@@ -9034,10 +9099,10 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>402</v>
+        <v>143</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>39</v>
@@ -9045,18 +9110,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>39</v>
+        <v>388</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>39</v>
@@ -9068,18 +9133,20 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>350</v>
+        <v>64</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>39</v>
       </c>
@@ -9127,25 +9194,25 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>408</v>
+        <v>259</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>409</v>
+        <v>260</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9153,7 +9220,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9179,16 +9246,16 @@
         <v>182</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9213,13 +9280,13 @@
         <v>39</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
@@ -9237,7 +9304,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9246,16 +9313,16 @@
         <v>50</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>417</v>
+        <v>191</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -9263,7 +9330,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9274,7 +9341,7 @@
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>39</v>
@@ -9286,16 +9353,16 @@
         <v>39</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9345,37 +9412,35 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
         <v>39</v>
       </c>
@@ -9387,25 +9452,29 @@
         <v>50</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="I73" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
       </c>
@@ -9429,13 +9498,13 @@
         <v>39</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>39</v>
+        <v>411</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>39</v>
+        <v>412</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>39</v>
@@ -9453,33 +9522,33 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>426</v>
+        <v>39</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>360</v>
+        <v>68</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>39</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9502,16 +9571,20 @@
         <v>39</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>65</v>
+        <v>415</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>39</v>
       </c>
@@ -9535,13 +9608,13 @@
         <v>39</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>39</v>
+        <v>419</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>39</v>
@@ -9559,7 +9632,7 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>67</v>
+        <v>414</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
@@ -9574,10 +9647,10 @@
         <v>39</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>39</v>
@@ -9585,7 +9658,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9608,15 +9681,17 @@
         <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>145</v>
+        <v>423</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>39</v>
@@ -9653,17 +9728,19 @@
         <v>39</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB75" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9672,16 +9749,16 @@
         <v>41</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>39</v>
+        <v>426</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>39</v>
+        <v>427</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>39</v>
+        <v>428</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -9689,11 +9766,9 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>39</v>
       </c>
@@ -9702,7 +9777,7 @@
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>39</v>
@@ -9714,16 +9789,20 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>364</v>
+        <v>182</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>39</v>
       </c>
@@ -9747,13 +9826,13 @@
         <v>39</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>39</v>
+        <v>434</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>39</v>
+        <v>435</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>39</v>
@@ -9771,25 +9850,25 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>152</v>
+        <v>426</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>39</v>
+        <v>436</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>39</v>
@@ -9797,11 +9876,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9814,22 +9893,22 @@
         <v>39</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>160</v>
+        <v>438</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>268</v>
+        <v>439</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>74</v>
+        <v>440</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9879,7 +9958,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>269</v>
+        <v>437</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -9888,16 +9967,16 @@
         <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>39</v>
+        <v>404</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>143</v>
+        <v>378</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>39</v>
+        <v>441</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>39</v>
@@ -9905,15 +9984,17 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="C78" t="s" s="2">
-        <v>369</v>
+        <v>39</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>50</v>
@@ -9928,20 +10009,16 @@
         <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>370</v>
+        <v>443</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>39</v>
       </c>
@@ -9989,33 +10066,33 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>39</v>
+        <v>445</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>241</v>
+        <v>379</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10023,13 +10100,13 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>39</v>
@@ -10038,26 +10115,22 @@
         <v>39</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>375</v>
+        <v>65</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>427</v>
+        <v>39</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>39</v>
@@ -10075,13 +10148,13 @@
         <v>39</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>379</v>
+        <v>39</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>39</v>
@@ -10099,7 +10172,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>374</v>
+        <v>67</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10114,16 +10187,16 @@
         <v>39</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>381</v>
       </c>
@@ -10133,13 +10206,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>39</v>
@@ -10148,17 +10221,15 @@
         <v>39</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>382</v>
+        <v>145</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>39</v>
@@ -10195,37 +10266,35 @@
         <v>39</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB80" s="2"/>
       <c r="AC80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>385</v>
+        <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>386</v>
+        <v>39</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>386</v>
+        <v>39</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -10233,9 +10302,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>39</v>
       </c>
@@ -10244,38 +10315,34 @@
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>119</v>
+        <v>383</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
-        <v>428</v>
+        <v>39</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>39</v>
@@ -10293,13 +10360,13 @@
         <v>39</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>393</v>
+        <v>39</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>39</v>
@@ -10317,69 +10384,67 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>394</v>
+        <v>39</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>396</v>
+        <v>160</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>397</v>
+        <v>287</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>39</v>
       </c>
@@ -10403,13 +10468,13 @@
         <v>39</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>401</v>
+        <v>39</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>39</v>
@@ -10427,13 +10492,13 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>395</v>
+        <v>288</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
@@ -10442,10 +10507,10 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>402</v>
+        <v>143</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>39</v>
@@ -10453,18 +10518,18 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>39</v>
+        <v>388</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>51</v>
@@ -10476,18 +10541,20 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>429</v>
+        <v>64</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>39</v>
       </c>
@@ -10535,25 +10602,25 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>408</v>
+        <v>259</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>409</v>
+        <v>260</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10561,7 +10628,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10569,7 +10636,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>50</v>
@@ -10587,23 +10654,23 @@
         <v>182</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>39</v>
+        <v>446</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>39</v>
@@ -10621,11 +10688,13 @@
         <v>39</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X84" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="Y84" t="s" s="2">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
@@ -10643,7 +10712,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10652,24 +10721,24 @@
         <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>417</v>
+        <v>191</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10677,13 +10746,13 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>39</v>
@@ -10692,16 +10761,16 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10751,73 +10820,75 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H86" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H86" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="I86" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>39</v>
+        <v>447</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>39</v>
@@ -10835,13 +10906,13 @@
         <v>39</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>39</v>
+        <v>411</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>39</v>
+        <v>412</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>39</v>
@@ -10859,33 +10930,33 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>435</v>
+        <v>39</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>360</v>
+        <v>68</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>39</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10908,16 +10979,20 @@
         <v>39</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>65</v>
+        <v>415</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>39</v>
       </c>
@@ -10941,13 +11016,13 @@
         <v>39</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>39</v>
+        <v>419</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>39</v>
@@ -10965,7 +11040,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>67</v>
+        <v>414</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -10980,18 +11055,18 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="AK87" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="AL87" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11005,7 +11080,7 @@
         <v>41</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>39</v>
@@ -11014,15 +11089,17 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>71</v>
+        <v>448</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>145</v>
+        <v>449</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>39</v>
@@ -11059,17 +11136,19 @@
         <v>39</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB88" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11078,16 +11157,16 @@
         <v>41</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>39</v>
+        <v>426</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>39</v>
+        <v>427</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>39</v>
+        <v>428</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>39</v>
@@ -11095,11 +11174,9 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
         <v>39</v>
       </c>
@@ -11108,7 +11185,7 @@
         <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>39</v>
@@ -11120,13 +11197,13 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>364</v>
+        <v>64</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>365</v>
+        <v>65</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>366</v>
+        <v>66</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11177,22 +11254,22 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>39</v>
@@ -11203,11 +11280,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>367</v>
+        <v>451</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11220,19 +11297,19 @@
         <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>71</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>74</v>
@@ -11273,19 +11350,19 @@
         <v>39</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -11300,7 +11377,7 @@
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>39</v>
@@ -11309,13 +11386,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>368</v>
+        <v>452</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>369</v>
+        <v>39</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11325,29 +11402,27 @@
         <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>64</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>370</v>
+        <v>222</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>371</v>
+        <v>223</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>39</v>
       </c>
@@ -11395,7 +11470,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11404,24 +11479,24 @@
         <v>50</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11429,35 +11504,33 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H92" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>375</v>
+        <v>228</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>376</v>
+        <v>229</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>39</v>
       </c>
@@ -11481,11 +11554,13 @@
         <v>39</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X92" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y92" t="s" s="2">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
@@ -11503,7 +11578,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11518,18 +11593,18 @@
         <v>39</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>381</v>
+        <v>454</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11537,31 +11612,31 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H93" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>382</v>
+        <v>234</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>383</v>
+        <v>235</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>384</v>
+        <v>236</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11611,7 +11686,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>381</v>
+        <v>237</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11620,24 +11695,24 @@
         <v>50</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>385</v>
+        <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>386</v>
+        <v>143</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>386</v>
+        <v>39</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11651,35 +11726,35 @@
         <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>428</v>
+        <v>39</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>39</v>
@@ -11699,11 +11774,9 @@
       <c r="W94" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X94" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="X94" s="2"/>
       <c r="Y94" t="s" s="2">
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>39</v>
@@ -11721,7 +11794,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -11730,24 +11803,24 @@
         <v>50</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>39</v>
+        <v>426</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>68</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11758,7 +11831,7 @@
         <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>39</v>
@@ -11770,20 +11843,18 @@
         <v>39</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>39</v>
       </c>
@@ -11807,13 +11878,13 @@
         <v>39</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>401</v>
+        <v>39</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>39</v>
@@ -11831,25 +11902,25 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>39</v>
+        <v>404</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>68</v>
+        <v>441</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>39</v>
@@ -11857,18 +11928,20 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="C96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>51</v>
@@ -11880,17 +11953,15 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>437</v>
+        <v>269</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>39</v>
@@ -11939,7 +12010,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -11948,24 +12019,24 @@
         <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>39</v>
+        <v>459</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11979,7 +12050,7 @@
         <v>50</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>39</v>
@@ -11988,20 +12059,16 @@
         <v>39</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>411</v>
+        <v>65</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>39</v>
       </c>
@@ -12025,11 +12092,13 @@
         <v>39</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X97" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y97" t="s" s="2">
-        <v>431</v>
+        <v>39</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -12047,7 +12116,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>410</v>
+        <v>67</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12056,16 +12125,16 @@
         <v>50</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>417</v>
+        <v>68</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>39</v>
@@ -12073,7 +12142,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12096,17 +12165,15 @@
         <v>39</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>419</v>
+        <v>145</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>39</v>
@@ -12143,19 +12210,17 @@
         <v>39</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB98" s="2"/>
       <c r="AC98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
@@ -12164,23 +12229,1647 @@
         <v>41</v>
       </c>
       <c r="AH98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AI98" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AK98" t="s" s="2">
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X102" s="2"/>
+      <c r="Y102" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AL98" t="s" s="2">
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X112" s="2"/>
+      <c r="Y112" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL113" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL98">
+  <autoFilter ref="A1:AL113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12190,7 +13879,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI97">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -1002,7 +1002,7 @@
     <t>legalAttester</t>
   </si>
   <si>
-    <t>Legal attester</t>
+    <t>Legal Attester</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
@@ -1453,7 +1453,7 @@
     <t>medications</t>
   </si>
   <si>
-    <t>Medicines list</t>
+    <t>Medicines List</t>
   </si>
   <si>
     <t>Information about medicines. This may include self-prescribed, clinician prescribed and nonprescription medicines, as well as all regular, intermittent and as required medicines pertinent to a patient. Information may also include changes to the therapy, including dose changes, new medicines and ceased medicines.</t>

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -1460,7 +1460,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-15:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}inv-dh-cmp-16:If present, the assertion of no relevant finding entry shall assert no known current medications {entry.resolve().where($this is Observation ).exists() implies entry.resolve().where($this is value and value.coding.code = '1234391000168107').exists()}inv-dh-cmp-17:If present, a list shall have the same code as the section {entry.resolve().where($this is List).exists() implies ((entry.resolve().code.coding.code) = code.coding.code)}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-15:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}inv-dh-cmp-19:A Ceased Medicines section shall not have an assertion of no relevant finding entry {code.coding.where(code='101.32027').exists() implies entry.reference.resolve().where($this is Observation).exists().not()}inv-dh-cmp-16:If present, the assertion of no relevant finding entry shall assert no known current medications {entry.resolve().where($this is Observation ).exists() implies entry.resolve().where($this is value and value.coding.code = '1234391000168107').exists()}inv-dh-cmp-17:If present, a list shall have the same code as the section {entry.resolve().where($this is List).exists() implies ((entry.resolve().code.coding.code) = code.coding.code)}</t>
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/history-of-medication-use-type-1</t>

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -1463,7 +1463,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-15:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}inv-dh-cmp-19:A Ceased Medicines section shall not have an assertion of no relevant finding entry {code.coding.where(code='101.32027').exists() implies entry.reference.resolve().where($this is Observation).exists().not()}inv-dh-cmp-16:If present, the assertion of no relevant finding entry shall assert no known current medications {entry.resolve().where($this is Observation ).exists() implies entry.resolve().where($this is value and value.coding.code = '1234391000168107').exists()}inv-dh-cmp-17:If present, a list shall have the same code as the section {entry.resolve().where($this is List).exists() implies ((entry.resolve().code.coding.code) = code.coding.code)}</t>
   </si>
   <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/history-of-medication-use-type-1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/history-of-medication-use-list-type-1</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-sml-pracchanges-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
@@ -1652,7 +1652,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.7109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.9921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -306,7 +306,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/STU3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/STU3/).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -497,7 +497,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-06:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-06:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
   </si>
   <si>
     <t>informationRecipient</t>

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -657,7 +657,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-mhr-1)
 </t>
   </si>
   <si>

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="462">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-cmp-01:The author role shall at least have a reference or an identifier with at least a system and a value {extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.reference.exists() or extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-18:If present, an information recipient shall at least have a reference, an identifier or a display {informationRecipient.exists() implies informationRecipient.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-cmp-02:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-03:The author shall at least have a reference or an identifier with at least a system and a value {author.reference.exists() or author.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-04:The custodian shall at least have a reference or an identifier with at least a system and a value {custodian.reference.exists() or custodian.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-cmp-01:The author role shall at least have a reference to a practitioner role that conforms to PractitionerRole with Practitioner with Mandatory Identifier or an identifier with at least a system and a value {extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1') or extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-cmp-18:If present, an information recipient shall at least have a reference, an identifier or a display {informationRecipient.exists() implies informationRecipient.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-cmp-02:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-03:The author shall at least have a reference or an identifier with at least a system and a value {author.reference.exists() or author.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-04:The custodian shall at least have a reference or an identifier with at least a system and a value {custodian.reference.exists() or custodian.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
@@ -497,7 +497,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-06:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>informationRecipient</t>
@@ -910,10 +910,6 @@
   </si>
   <si>
     <t>A related person that attested this composition.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Composition.attester.modifierExtension</t>
@@ -5762,7 +5758,7 @@
         <v>152</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>39</v>
@@ -5776,11 +5772,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5805,7 +5801,7 @@
         <v>160</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>74</v>
@@ -5858,7 +5854,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5884,7 +5880,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5910,16 +5906,16 @@
         <v>119</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5947,11 +5943,11 @@
         <v>176</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5968,7 +5964,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>50</v>
@@ -5983,10 +5979,10 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>39</v>
@@ -5994,7 +5990,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6020,14 +6016,14 @@
         <v>239</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -6076,7 +6072,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -6091,10 +6087,10 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
@@ -6102,7 +6098,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6125,17 +6121,17 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
@@ -6184,7 +6180,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6199,13 +6195,13 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="43">
@@ -6213,7 +6209,7 @@
         <v>268</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>39</v>
@@ -6238,7 +6234,7 @@
         <v>269</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>271</v>
@@ -6308,7 +6304,7 @@
         <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>276</v>
@@ -6626,7 +6622,7 @@
         <v>152</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>39</v>
@@ -6640,11 +6636,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6669,7 +6665,7 @@
         <v>160</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>74</v>
@@ -6722,7 +6718,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6748,7 +6744,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6774,23 +6770,23 @@
         <v>119</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>39</v>
@@ -6811,11 +6807,11 @@
         <v>176</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6832,7 +6828,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>50</v>
@@ -6847,10 +6843,10 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
@@ -6858,7 +6854,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6884,14 +6880,14 @@
         <v>239</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>39</v>
@@ -6940,7 +6936,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6955,10 +6951,10 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -6966,7 +6962,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6992,14 +6988,14 @@
         <v>248</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -7048,7 +7044,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -7063,18 +7059,18 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7097,19 +7093,19 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -7158,7 +7154,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7173,10 +7169,10 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -7184,7 +7180,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7210,13 +7206,13 @@
         <v>269</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7266,7 +7262,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7278,13 +7274,13 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7292,7 +7288,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7398,7 +7394,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7506,11 +7502,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7535,7 +7531,7 @@
         <v>160</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>74</v>
@@ -7588,7 +7584,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7614,7 +7610,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7640,13 +7636,13 @@
         <v>119</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7675,46 +7671,46 @@
         <v>176</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="AK56" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -7722,7 +7718,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7745,13 +7741,13 @@
         <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7802,7 +7798,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>50</v>
@@ -7817,10 +7813,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7828,7 +7824,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7854,16 +7850,16 @@
         <v>269</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7912,7 +7908,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7924,13 +7920,13 @@
         <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7938,7 +7934,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8044,7 +8040,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8152,11 +8148,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8181,7 +8177,7 @@
         <v>160</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>74</v>
@@ -8234,7 +8230,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8260,7 +8256,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8286,13 +8282,13 @@
         <v>182</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8321,11 +8317,11 @@
         <v>109</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
       </c>
@@ -8342,7 +8338,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8368,7 +8364,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8391,13 +8387,13 @@
         <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8448,7 +8444,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8474,7 +8470,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8497,13 +8493,13 @@
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8554,7 +8550,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8569,7 +8565,7 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>68</v>
@@ -8580,7 +8576,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8606,10 +8602,10 @@
         <v>269</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8648,7 +8644,7 @@
         <v>39</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AB65" s="2"/>
       <c r="AC65" t="s" s="2">
@@ -8658,7 +8654,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8670,13 +8666,13 @@
         <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AJ65" t="s" s="2">
+      <c r="AK65" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>39</v>
@@ -8684,7 +8680,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8790,7 +8786,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8894,10 +8890,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>39</v>
@@ -8919,13 +8915,13 @@
         <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8988,7 +8984,7 @@
         <v>152</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>39</v>
@@ -9002,11 +8998,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9031,7 +9027,7 @@
         <v>160</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>74</v>
@@ -9084,7 +9080,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9110,11 +9106,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9136,16 +9132,16 @@
         <v>64</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>39</v>
@@ -9194,7 +9190,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9220,7 +9216,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9246,16 +9242,16 @@
         <v>182</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9283,11 +9279,11 @@
         <v>109</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
       </c>
@@ -9304,7 +9300,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9330,7 +9326,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9356,13 +9352,13 @@
         <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9412,7 +9408,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9421,16 +9417,16 @@
         <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AI72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AK72" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9438,7 +9434,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9464,16 +9460,16 @@
         <v>119</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
@@ -9501,43 +9497,43 @@
         <v>176</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>68</v>
@@ -9548,7 +9544,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9574,16 +9570,16 @@
         <v>182</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>39</v>
@@ -9611,43 +9607,43 @@
         <v>188</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>68</v>
@@ -9658,7 +9654,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9681,16 +9677,16 @@
         <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9740,7 +9736,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9749,16 +9745,16 @@
         <v>41</v>
       </c>
       <c r="AH75" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AI75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
+      <c r="AK75" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -9766,7 +9762,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9792,16 +9788,16 @@
         <v>182</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>39</v>
@@ -9829,43 +9825,43 @@
         <v>188</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Y76" t="s" s="2">
+      <c r="Z76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>68</v>
@@ -9876,7 +9872,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9902,13 +9898,13 @@
         <v>39</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9958,7 +9954,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -9967,16 +9963,16 @@
         <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>39</v>
@@ -9984,10 +9980,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -10012,10 +10008,10 @@
         <v>269</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10066,7 +10062,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10078,13 +10074,13 @@
         <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>39</v>
@@ -10092,7 +10088,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10198,7 +10194,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10302,10 +10298,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>39</v>
@@ -10327,13 +10323,13 @@
         <v>39</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10396,7 +10392,7 @@
         <v>152</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>39</v>
@@ -10410,11 +10406,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10439,7 +10435,7 @@
         <v>160</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>74</v>
@@ -10492,7 +10488,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10518,11 +10514,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10544,16 +10540,16 @@
         <v>64</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>39</v>
@@ -10602,7 +10598,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10628,7 +10624,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10654,23 +10650,23 @@
         <v>182</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>39</v>
@@ -10691,11 +10687,11 @@
         <v>109</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
       </c>
@@ -10712,7 +10708,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10738,7 +10734,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10764,13 +10760,13 @@
         <v>129</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10820,7 +10816,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10829,16 +10825,16 @@
         <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AI85" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AK85" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10846,7 +10842,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10872,23 +10868,23 @@
         <v>119</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>39</v>
@@ -10909,43 +10905,43 @@
         <v>176</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Y86" t="s" s="2">
+      <c r="Z86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>68</v>
@@ -10956,7 +10952,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10982,16 +10978,16 @@
         <v>182</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>39</v>
@@ -11019,43 +11015,43 @@
         <v>188</v>
       </c>
       <c r="X87" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y87" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Y87" t="s" s="2">
+      <c r="Z87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>68</v>
@@ -11066,7 +11062,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11089,16 +11085,16 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="K88" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="L88" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11148,7 +11144,7 @@
         <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11157,16 +11153,16 @@
         <v>41</v>
       </c>
       <c r="AH88" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AI88" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="AK88" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>39</v>
@@ -11174,7 +11170,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11280,7 +11276,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11388,7 +11384,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11496,7 +11492,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11604,7 +11600,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11712,7 +11708,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11738,16 +11734,16 @@
         <v>182</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>39</v>
@@ -11776,7 +11772,7 @@
       </c>
       <c r="X94" s="2"/>
       <c r="Y94" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>39</v>
@@ -11794,7 +11790,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -11803,13 +11799,13 @@
         <v>50</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>68</v>
@@ -11820,7 +11816,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11846,13 +11842,13 @@
         <v>39</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -11902,7 +11898,7 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -11911,16 +11907,16 @@
         <v>41</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>39</v>
@@ -11928,10 +11924,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>39</v>
@@ -11956,10 +11952,10 @@
         <v>269</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12010,7 +12006,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12022,13 +12018,13 @@
         <v>39</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AJ96" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
@@ -12036,7 +12032,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12142,7 +12138,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12246,10 +12242,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B99" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>39</v>
@@ -12271,13 +12267,13 @@
         <v>39</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12340,7 +12336,7 @@
         <v>152</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>39</v>
@@ -12354,11 +12350,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12383,7 +12379,7 @@
         <v>160</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>74</v>
@@ -12436,7 +12432,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -12462,11 +12458,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12488,16 +12484,16 @@
         <v>64</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>39</v>
@@ -12546,7 +12542,7 @@
         <v>39</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -12572,7 +12568,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12598,16 +12594,16 @@
         <v>182</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>39</v>
@@ -12636,7 +12632,7 @@
       </c>
       <c r="X102" s="2"/>
       <c r="Y102" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>39</v>
@@ -12654,7 +12650,7 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -12680,7 +12676,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12706,13 +12702,13 @@
         <v>129</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -12762,7 +12758,7 @@
         <v>39</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -12771,16 +12767,16 @@
         <v>50</v>
       </c>
       <c r="AH103" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AI103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AK103" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>39</v>
@@ -12788,7 +12784,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12814,23 +12810,23 @@
         <v>119</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>39</v>
@@ -12851,43 +12847,43 @@
         <v>176</v>
       </c>
       <c r="X104" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Y104" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Y104" t="s" s="2">
+      <c r="Z104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>68</v>
@@ -12898,7 +12894,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12924,16 +12920,16 @@
         <v>182</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>39</v>
@@ -12961,43 +12957,43 @@
         <v>188</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Y105" t="s" s="2">
+      <c r="Z105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>68</v>
@@ -13008,7 +13004,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13031,16 +13027,16 @@
         <v>39</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K106" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="L106" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13090,7 +13086,7 @@
         <v>39</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13099,16 +13095,16 @@
         <v>41</v>
       </c>
       <c r="AH106" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AI106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
+      <c r="AK106" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
@@ -13116,7 +13112,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13222,7 +13218,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13330,7 +13326,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13438,7 +13434,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13546,7 +13542,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13654,7 +13650,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13680,16 +13676,16 @@
         <v>182</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>39</v>
@@ -13718,7 +13714,7 @@
       </c>
       <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>39</v>
@@ -13736,7 +13732,7 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -13745,13 +13741,13 @@
         <v>50</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>68</v>
@@ -13762,7 +13758,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13788,13 +13784,13 @@
         <v>39</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -13844,7 +13840,7 @@
         <v>39</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>40</v>
@@ -13853,16 +13849,16 @@
         <v>41</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>39</v>

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-cmp-01:The author role shall at least have a reference to a practitioner role that conforms to PractitionerRole with Practitioner with Mandatory Identifier or an identifier with at least a system and a value {extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1') or extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-cmp-18:If present, an information recipient shall at least have a reference, an identifier or a display {informationRecipient.exists() implies informationRecipient.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-cmp-02:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-03:The author shall at least have a reference or an identifier with at least a system and a value {author.reference.exists() or author.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-04:The custodian shall at least have a reference or an identifier with at least a system and a value {custodian.reference.exists() or custodian.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-cmp-01:The author role shall at least have a reference that conforms to PractitionerRole with Practitioner with Mandatory Identifier or an identifier with at least a system and a value {extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1') or extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-cmp-18:If present, an information recipient shall at least have a reference, an identifier or a display {informationRecipient.exists() implies informationRecipient.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-cmp-02:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-03:The author shall at least have a reference or an identifier with at least a system and a value {author.reference.exists() or author.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-04:The custodian shall at least have a reference or an identifier with at least a system and a value {custodian.reference.exists() or custodian.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>

--- a/output/SharedMedicinesList/composition-sml-prac-1.xlsx
+++ b/output/SharedMedicinesList/composition-sml-prac-1.xlsx
@@ -514,7 +514,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-07:A practitioner shall conform to Base Practitioner {all($this.reference.exists() implies resolve().where($this is Practitioner).conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1'))}inv-dh-cmp-08:A patient shall conform to Base Patient {all($this.reference.exists() implies resolve().where($this is Patient).conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1'))}inv-dh-cmp-09:A related person shall conform to Base RelatedPerson {all($this.reference.exists() implies resolve().where($this is RelatedPerson).conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}inv-dh-cmp-10:A practitioner role shall conform to Base PractitionerRole {all($this.reference.exists() implies resolve().where($this is PractitionerRole).conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-dh-base-1'))}inv-dh-cmp-11:An organisation shall conform to Base Organization {all($this.reference.exists() implies resolve().where($this is Organization).conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1'))}inv-dh-cmp-12:An information recipient shall not be a device {resolve().where($this is Device).exists().not()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-07:A practitioner shall conform to Base Practitioner {all($this.valueReference.reference.resolve().where($this is Practitioner).exists() implies $this.valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1'))}inv-dh-cmp-08:A patient shall conform to Base Patient {all($this.valueReference.reference.resolve().where($this is Patient).exists() implies $this.valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1'))}inv-dh-cmp-09:A related person shall conform to Base RelatedPerson {all($this.valueReference.reference.resolve().where($this is RelatedPerson).exists() implies $this.valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}inv-dh-cmp-10:A practitioner role shall conform to Base PractitionerRole {all($this.valueReference.reference.resolve().where($this is PractitionerRole).exists() implies $this.valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-dh-base-1'))}inv-dh-cmp-11:An organisation shall conform to Base Organization {all($this.valueReference.reference.resolve().where($this is Organization).exists() implies $this.valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1'))}inv-dh-cmp-12:An information recipient shall not be a device {valueReference.reference.resolve().where($this is Device).exists().not()}</t>
   </si>
   <si>
     <t>Composition.modifierExtension</t>
